--- a/biology/Zoologie/Isognomostoma_isognomostomos/Isognomostoma_isognomostomos.xlsx
+++ b/biology/Zoologie/Isognomostoma_isognomostomos/Isognomostoma_isognomostomos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Isognomostoma isognomostomos, communément appelé l’Hélice grimace[3], est une espèce de gastéropodes de la famille des Helicidae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Isognomostoma isognomostomos, communément appelé l’Hélice grimace, est une espèce de gastéropodes de la famille des Helicidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On trouve cette espèce en Europe : en Autriche, en Belgique, en Bosnie-Herzégovine, en Croatie, en République tchèque, en France, en Allemagne, en Suisse, en Hongrie, en Italie, en Lettonie, au Liechtenstein, en Lituanie, au Luxembourg, en Pologne, en Roumanie, en Slovaquie, en Slovénie, en Ukraine et en Russie[4].
-Elle vit dans les forêts tempérées[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve cette espèce en Europe : en Autriche, en Belgique, en Bosnie-Herzégovine, en Croatie, en République tchèque, en France, en Allemagne, en Suisse, en Hongrie, en Italie, en Lettonie, au Liechtenstein, en Lituanie, au Luxembourg, en Pologne, en Roumanie, en Slovaquie, en Slovénie, en Ukraine et en Russie.
+Elle vit dans les forêts tempérées.
 </t>
         </is>
       </c>
